--- a/Data Files/IHS_IP_permissions/international_partner_permissions_test_user_list.xlsx
+++ b/Data Files/IHS_IP_permissions/international_partner_permissions_test_user_list.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcfu/Katalon Studio/HCI_Group/Data Files/IHS_IP_permissions/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC280C2-3F6B-9145-BD5F-0B395AB40243}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="1820" windowWidth="28800" windowHeight="16140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="48">
   <si>
     <t>HP_Khrunichev_inwork</t>
   </si>
@@ -99,9 +105,6 @@
     <t>Monica</t>
   </si>
   <si>
-    <t>Purple</t>
-  </si>
-  <si>
     <t>PARTNER_JAXA</t>
   </si>
   <si>
@@ -157,9 +160,6 @@
   </si>
   <si>
     <t>monica@no_mail.nasa.gov</t>
-  </si>
-  <si>
-    <t>purple@no_mail.nasa.gov</t>
   </si>
   <si>
     <t>Michael Jordan</t>
@@ -174,8 +174,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -187,6 +187,7 @@
       <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -209,6 +210,19 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -248,12 +262,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -264,6 +282,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -588,78 +614,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="2.83203125" customWidth="1"/>
-    <col min="4" max="4" width="4" customWidth="1"/>
-    <col min="5" max="5" width="3.1640625" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="11" max="11" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="32">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:15" s="9" customFormat="1" ht="42" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="16">
-      <c r="A2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -685,12 +714,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -718,12 +747,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -753,12 +782,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="16">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -790,12 +819,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -825,12 +854,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="16">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -860,12 +889,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="16">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -897,12 +926,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="16">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -930,12 +959,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="5" customFormat="1" ht="16">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:15" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
@@ -965,12 +994,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="16">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
@@ -1002,12 +1031,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="5" customFormat="1" ht="16">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:15" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
@@ -1037,12 +1066,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="5" customFormat="1" ht="16">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:15" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>8</v>
@@ -1074,12 +1103,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="16">
-      <c r="A14" s="9" t="s">
-        <v>47</v>
+    <row r="14" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
@@ -1109,12 +1138,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="16">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
@@ -1146,12 +1175,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="5" customFormat="1" ht="16">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:15" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>8</v>
@@ -1185,12 +1214,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="16">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
@@ -1222,55 +1251,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="5" customFormat="1" ht="16">
-      <c r="A18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O18" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B8" r:id="rId2"/>
-    <hyperlink ref="B9" r:id="rId3"/>
-    <hyperlink ref="B10" r:id="rId4"/>
-    <hyperlink ref="B11" r:id="rId5"/>
-    <hyperlink ref="B12" r:id="rId6"/>
-    <hyperlink ref="B13" r:id="rId7"/>
-    <hyperlink ref="B6" r:id="rId8"/>
-    <hyperlink ref="B5" r:id="rId9"/>
-    <hyperlink ref="B4" r:id="rId10"/>
-    <hyperlink ref="B3" r:id="rId11"/>
-    <hyperlink ref="B2" r:id="rId12"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B12" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B5" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B4" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B3" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B2" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
